--- a/model/results/mix2_ggpos_h2pos/v_inv_tech.xlsx
+++ b/model/results/mix2_ggpos_h2pos/v_inv_tech.xlsx
@@ -781,19 +781,19 @@
         <v>2022</v>
       </c>
       <c r="B3" t="n">
-        <v>606923076.9230773</v>
+        <v>606923076.923077</v>
       </c>
       <c r="C3" t="n">
-        <v>606923076.9230773</v>
+        <v>606923076.923077</v>
       </c>
       <c r="D3" t="n">
-        <v>606923076.9230778</v>
+        <v>606923076.923077</v>
       </c>
       <c r="E3" t="n">
-        <v>185769230.7692309</v>
+        <v>241500000</v>
       </c>
       <c r="F3" t="n">
-        <v>241500000.0000016</v>
+        <v>185769230.7692308</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>18000000.00000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>12000000.00000001</v>
+        <v>11999999.9999995</v>
       </c>
       <c r="AI5" t="n">
         <v>10200000.00000001</v>
@@ -1174,19 +1174,19 @@
         <v>2025</v>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
         <v>876666666.6666666</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
       <c r="D6" t="n">
-        <v>772957276.0736158</v>
+        <v>504623942.7402844</v>
       </c>
       <c r="E6" t="n">
+        <v>429333333.3333333</v>
+      </c>
+      <c r="F6" t="n">
         <v>268333333.3333333</v>
-      </c>
-      <c r="F6" t="n">
-        <v>161000000</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>9000000</v>
       </c>
       <c r="AG6" t="n">
-        <v>126000000.0000002</v>
+        <v>126000000.0000025</v>
       </c>
       <c r="AH6" t="n">
-        <v>84000000.00000019</v>
+        <v>84000000.00000165</v>
       </c>
       <c r="AI6" t="n">
-        <v>71400000.00000013</v>
+        <v>71400000.00000142</v>
       </c>
       <c r="AJ6" t="n">
         <v>71400000.00000013</v>
       </c>
       <c r="AK6" t="n">
-        <v>168000000.0000004</v>
+        <v>168000000.0000033</v>
       </c>
       <c r="AL6" t="n">
         <v>168000000.0000004</v>
@@ -1305,13 +1305,13 @@
         <v>2026</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>876666666.6666666</v>
       </c>
       <c r="C7" t="n">
-        <v>467903419.2229047</v>
+        <v>894200000</v>
       </c>
       <c r="D7" t="n">
-        <v>997909390.5930374</v>
+        <v>372042723.9263822</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1442,10 +1442,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>894200000</v>
       </c>
       <c r="E8" t="n">
-        <v>273700000</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1567,10 +1567,10 @@
         <v>2028</v>
       </c>
       <c r="B9" t="n">
-        <v>894200000</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>408763247.4437618</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>268333333.3333333</v>
+        <v>273700000</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1603,16 +1603,16 @@
         <v>13265306.12244898</v>
       </c>
       <c r="N9" t="n">
-        <v>9183673.469387755</v>
+        <v>9183673.469388034</v>
       </c>
       <c r="O9" t="n">
-        <v>45918367.34693879</v>
+        <v>45918367.34693877</v>
       </c>
       <c r="P9" t="n">
         <v>81632653.06122449</v>
       </c>
       <c r="Q9" t="n">
-        <v>30612244.89795919</v>
+        <v>30612244.89795918</v>
       </c>
       <c r="R9" t="n">
         <v>10204081.63265306</v>
@@ -1621,7 +1621,7 @@
         <v>53061224.48979592</v>
       </c>
       <c r="T9" t="n">
-        <v>1020408.163265306</v>
+        <v>1020408.163265325</v>
       </c>
       <c r="U9" t="n">
         <v>27551020.40816326</v>
@@ -1651,13 +1651,13 @@
         <v>12244897.95918367</v>
       </c>
       <c r="AD9" t="n">
-        <v>3061224.489795919</v>
+        <v>3061224.489795975</v>
       </c>
       <c r="AE9" t="n">
-        <v>27551020.40816327</v>
+        <v>27551020.40816326</v>
       </c>
       <c r="AF9" t="n">
-        <v>6122448.979591838</v>
+        <v>6122448.979591837</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
@@ -1698,10 +1698,10 @@
         <v>2029</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>894200000.0000012</v>
       </c>
       <c r="C10" t="n">
-        <v>894200000</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>273700000</v>
       </c>
       <c r="F16" t="n">
-        <v>273699999.9999989</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
